--- a/TP4/Results.xlsx
+++ b/TP4/Results.xlsx
@@ -163,7 +163,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -213,7 +213,9 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="n">
+        <v>1311</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -231,7 +233,9 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="n">
+        <v>320.7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -249,7 +253,9 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="n">
+        <v>78.52</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -267,7 +273,9 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="n">
+        <v>101.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -285,7 +293,9 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="n">
+        <v>0.008772</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -303,7 +313,9 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="n">
+        <v>6.235</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -321,7 +333,9 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="n">
+        <v>5.625</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">

--- a/TP4/Results.xlsx
+++ b/TP4/Results.xlsx
@@ -163,7 +163,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -353,7 +353,9 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="n">
+        <v>11.06</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -371,7 +373,9 @@
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="n">
+        <v>37.26</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -389,7 +393,9 @@
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="n">
+        <v>33.81</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -407,7 +413,9 @@
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="n">
+        <v>37.37</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -425,7 +433,9 @@
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="n">
+        <v>47.49</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
@@ -443,7 +453,9 @@
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="n">
+        <v>0.0002311</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
@@ -461,7 +473,9 @@
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="n">
+        <v>0.6159</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
@@ -479,7 +493,9 @@
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="n">
+        <v>1.653</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
@@ -497,7 +513,9 @@
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="n">
+        <v>3.68</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">

--- a/TP4/Results.xlsx
+++ b/TP4/Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="14">
   <si>
     <t>Controller</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Sugeno</t>
+  </si>
+  <si>
+    <t>116.9(?)</t>
+  </si>
+  <si>
+    <t>148.5(?)</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,9 @@
       <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
@@ -551,7 +559,9 @@
       <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">

--- a/TP4/Results.xlsx
+++ b/TP4/Results.xlsx
@@ -163,7 +163,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -453,6 +453,9 @@
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F14" s="1" t="n">
+        <v>0.0002281</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -469,6 +472,9 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.3861</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TP4/Results.xlsx
+++ b/TP4/Results.xlsx
@@ -65,6 +65,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -86,6 +87,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,13 +165,13 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.2908163265306"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.1530612244898"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.9081632653061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.9336734693878"/>
@@ -493,6 +495,9 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F16" s="1" t="n">
+        <v>1.425</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -510,6 +515,9 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F17" s="1" t="n">
+        <v>2.865</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -607,6 +615,9 @@
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F22" s="1" t="n">
+        <v>0.0002019</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -624,6 +635,9 @@
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F23" s="1" t="n">
+        <v>0.2998</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -641,6 +655,9 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F24" s="1" t="n">
+        <v>1.495</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -658,6 +675,9 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F25" s="1" t="n">
+        <v>2.689</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -675,6 +695,9 @@
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F26" s="1" t="n">
+        <v>21.98</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -692,6 +715,9 @@
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F27" s="1" t="n">
+        <v>22.77</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -709,6 +735,9 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F28" s="1" t="n">
+        <v>25.77</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -726,6 +755,9 @@
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F29" s="1" t="n">
+        <v>27.49</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -743,6 +775,9 @@
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F30" s="1" t="n">
+        <v>0.0001569</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -760,6 +795,9 @@
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F31" s="1" t="n">
+        <v>0.2356</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -777,6 +815,9 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F32" s="1" t="n">
+        <v>1.489</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -793,6 +834,9 @@
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>2.594</v>
       </c>
     </row>
   </sheetData>

--- a/TP4/Results.xlsx
+++ b/TP4/Results.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Resultados Testes Realizados" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -165,7 +165,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -176,7 +176,8 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.9081632653061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.9336734693878"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1023" min="7" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,8 +842,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05416666666667" bottom="1.05416666666667" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/TP4/Results.xlsx
+++ b/TP4/Results.xlsx
@@ -165,7 +165,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -843,7 +843,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05416666666667" bottom="1.05416666666667" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="0" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
